--- a/public/assets/product_bulk_formatPrice.xlsx
+++ b/public/assets/product_bulk_formatPrice.xlsx
@@ -1,79 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0047144-FEB7-477B-9615-872ABB75AC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91D20F2-9289-465E-94A6-C68B4D820A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="جرد المواد" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
-  <si>
-    <t>اسم المادة</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>السعر</t>
   </si>
   <si>
-    <t>اتورفاست رمادي 20ملغ ابن زهر</t>
-  </si>
-  <si>
-    <t>اتورفاست احمر 40 ملغ ابن زهر</t>
-  </si>
-  <si>
-    <t>ازوسين اخضر 250ملغ 6 كبسولة ابن زهر</t>
-  </si>
-  <si>
-    <t>ازوسين ازرق 500ملغ 3 كبسولة ابن زهر</t>
-  </si>
-  <si>
-    <t>ازوفلوكس 400ملغ ابن زهر 10 اقراص</t>
-  </si>
-  <si>
-    <t>اسبيرين 162 ملغ 30 حبة ابن زهر</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>سيمبافيت ازرق 3/25-30 كبسول - فيتا فارما</t>
-  </si>
-  <si>
-    <t>سيمبافيت اخضر 50/6-30 كبسول - فيتا فارما</t>
-  </si>
-  <si>
-    <t>غلوبيفيت صغير شراب 100 مل - فيتا فارما</t>
-  </si>
-  <si>
-    <t>غليسيرين 1غ فيتا 10 تحاميل -فيتا فارما</t>
-  </si>
-  <si>
-    <t>فيتا برازول كحلي 15 -فيتا فارما</t>
-  </si>
-  <si>
-    <t>فيتا كيدز شراب 100مل - فيتا فارما</t>
-  </si>
-  <si>
-    <t>بيلوريكت مرهم - بركات</t>
-  </si>
-  <si>
-    <t>تراغليبتين 5 ملغ 10 حبات -بركات</t>
-  </si>
-  <si>
-    <t>سكالبازون 30 مل -بركات</t>
+    <t>رمز المادة</t>
   </si>
 </sst>
 </file>
@@ -10876,7 +10838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="899">
+  <cellXfs count="898">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -13568,9 +13530,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13855,7 +13814,7 @@
   <dimension ref="A1:B897"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13866,59 +13825,51 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="897" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="897" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="897" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="1">
+        <v>8912</v>
       </c>
       <c r="B2" s="1">
         <v>1400</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>5645</v>
       </c>
       <c r="B3" s="2">
         <v>1800</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
+      <c r="A4" s="3">
+        <v>456</v>
       </c>
       <c r="B4" s="3">
-        <v>3200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
+      <c r="A5" s="4">
+        <v>4456</v>
       </c>
       <c r="B5" s="4">
-        <v>2900</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2400</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="898" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
-        <v>3000</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7"/>
@@ -17445,76 +17396,40 @@
       <c r="B888" s="887"/>
     </row>
     <row r="889" spans="1:2">
-      <c r="A889" s="888" t="s">
-        <v>9</v>
-      </c>
-      <c r="B889" s="888" t="s">
-        <v>8</v>
-      </c>
+      <c r="A889" s="888"/>
+      <c r="B889" s="888"/>
     </row>
     <row r="890" spans="1:2">
-      <c r="A890" s="889" t="s">
-        <v>10</v>
-      </c>
-      <c r="B890" s="889" t="s">
-        <v>8</v>
-      </c>
+      <c r="A890" s="889"/>
+      <c r="B890" s="889"/>
     </row>
     <row r="891" spans="1:2">
-      <c r="A891" s="890" t="s">
-        <v>11</v>
-      </c>
-      <c r="B891" s="890" t="s">
-        <v>8</v>
-      </c>
+      <c r="A891" s="890"/>
+      <c r="B891" s="890"/>
     </row>
     <row r="892" spans="1:2">
-      <c r="A892" s="891" t="s">
-        <v>12</v>
-      </c>
-      <c r="B892" s="891" t="s">
-        <v>8</v>
-      </c>
+      <c r="A892" s="891"/>
+      <c r="B892" s="891"/>
     </row>
     <row r="893" spans="1:2">
-      <c r="A893" s="892" t="s">
-        <v>13</v>
-      </c>
-      <c r="B893" s="892" t="s">
-        <v>8</v>
-      </c>
+      <c r="A893" s="892"/>
+      <c r="B893" s="892"/>
     </row>
     <row r="894" spans="1:2">
-      <c r="A894" s="893" t="s">
-        <v>14</v>
-      </c>
-      <c r="B894" s="893" t="s">
-        <v>8</v>
-      </c>
+      <c r="A894" s="893"/>
+      <c r="B894" s="893"/>
     </row>
     <row r="895" spans="1:2">
-      <c r="A895" s="894" t="s">
-        <v>15</v>
-      </c>
-      <c r="B895" s="894" t="s">
-        <v>8</v>
-      </c>
+      <c r="A895" s="894"/>
+      <c r="B895" s="894"/>
     </row>
     <row r="896" spans="1:2">
-      <c r="A896" s="895" t="s">
-        <v>16</v>
-      </c>
-      <c r="B896" s="895" t="s">
-        <v>8</v>
-      </c>
+      <c r="A896" s="895"/>
+      <c r="B896" s="895"/>
     </row>
     <row r="897" spans="1:2">
-      <c r="A897" s="896" t="s">
-        <v>17</v>
-      </c>
-      <c r="B897" s="896" t="s">
-        <v>8</v>
-      </c>
+      <c r="A897" s="896"/>
+      <c r="B897" s="896"/>
     </row>
   </sheetData>
   <mergeCells count="2">
